--- a/wines_dataset.xlsx
+++ b/wines_dataset.xlsx
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>9.200000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="R16" t="b">
         <v>0</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>81.60000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="R19" t="b">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>24.06395376711558</v>
+        <v>24.0639537671156</v>
       </c>
       <c r="R37" t="b">
         <v>1</v>
@@ -4341,7 +4341,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q45" t="n">
         <v>13.6</v>
       </c>
@@ -4946,7 +4950,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q52" t="n">
         <v>17</v>
       </c>
@@ -6247,7 +6255,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q67" t="n">
         <v>12</v>
       </c>
@@ -6336,7 +6348,7 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>81.80000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="R68" t="b">
         <v>0</v>
@@ -9636,7 +9648,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q106" t="n">
         <v>12</v>
       </c>
@@ -10154,7 +10170,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P112" t="inlineStr"/>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q112" t="n">
         <v>13.8</v>
       </c>
@@ -11281,7 +11301,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P125" t="inlineStr"/>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q125" t="n">
         <v>39.8</v>
       </c>
@@ -12669,7 +12693,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P141" t="inlineStr"/>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q141" t="n">
         <v>25</v>
       </c>
@@ -13100,7 +13128,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P146" t="inlineStr"/>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q146" t="n">
         <v>50</v>
       </c>
@@ -13531,7 +13563,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P151" t="inlineStr"/>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q151" t="n">
         <v>28</v>
       </c>
@@ -16572,7 +16608,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P186" t="inlineStr"/>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q186" t="n">
         <v>14</v>
       </c>
@@ -18221,7 +18261,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P205" t="inlineStr"/>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q205" t="n">
         <v>16</v>
       </c>
@@ -18919,7 +18963,7 @@
         </is>
       </c>
       <c r="Q213" t="n">
-        <v>85.80000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="R213" t="b">
         <v>1</v>
@@ -21616,7 +21660,7 @@
         </is>
       </c>
       <c r="Q244" t="n">
-        <v>81.80000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="R244" t="b">
         <v>0</v>
@@ -25090,7 +25134,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P284" t="inlineStr"/>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q284" t="n">
         <v>17.8</v>
       </c>
@@ -25521,7 +25569,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P289" t="inlineStr"/>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q289" t="n">
         <v>32</v>
       </c>
@@ -26387,7 +26439,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P299" t="inlineStr"/>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q299" t="n">
         <v>14</v>
       </c>
@@ -27607,7 +27663,7 @@
         </is>
       </c>
       <c r="Q313" t="n">
-        <v>9.200000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="R313" t="b">
         <v>0</v>
@@ -29695,7 +29751,7 @@
         </is>
       </c>
       <c r="Q337" t="n">
-        <v>11.12315376711558</v>
+        <v>11.1231537671156</v>
       </c>
       <c r="R337" t="b">
         <v>1</v>
@@ -30913,7 +30969,7 @@
         </is>
       </c>
       <c r="Q351" t="n">
-        <v>11.12315376711558</v>
+        <v>11.1231537671156</v>
       </c>
       <c r="R351" t="b">
         <v>1</v>
@@ -31174,7 +31230,7 @@
         </is>
       </c>
       <c r="Q354" t="n">
-        <v>7.600000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="R354" t="b">
         <v>1</v>
@@ -31261,7 +31317,7 @@
         </is>
       </c>
       <c r="Q355" t="n">
-        <v>7.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="R355" t="b">
         <v>1</v>
@@ -32473,7 +32529,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P369" t="inlineStr"/>
+      <c r="P369" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q369" t="n">
         <v>16.5</v>
       </c>
@@ -33774,7 +33834,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P384" t="inlineStr"/>
+      <c r="P384" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q384" t="n">
         <v>15</v>
       </c>
@@ -35771,7 +35835,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P407" t="inlineStr"/>
+      <c r="P407" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q407" t="n">
         <v>35</v>
       </c>
@@ -35941,7 +36009,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P409" t="inlineStr"/>
+      <c r="P409" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q409" t="n">
         <v>19.8</v>
       </c>
@@ -41679,7 +41751,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P475" t="inlineStr"/>
+      <c r="P475" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q475" t="n">
         <v>14</v>
       </c>
@@ -42545,7 +42621,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P485" t="inlineStr"/>
+      <c r="P485" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q485" t="n">
         <v>25</v>
       </c>
@@ -44020,7 +44100,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P502" t="inlineStr"/>
+      <c r="P502" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q502" t="n">
         <v>11</v>
       </c>
@@ -44103,7 +44187,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P503" t="inlineStr"/>
+      <c r="P503" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q503" t="n">
         <v>13</v>
       </c>
@@ -44795,7 +44883,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P511" t="inlineStr"/>
+      <c r="P511" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q511" t="n">
         <v>17</v>
       </c>
@@ -46009,7 +46101,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P525" t="inlineStr"/>
+      <c r="P525" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q525" t="n">
         <v>13</v>
       </c>
@@ -48876,7 +48972,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P558" t="inlineStr"/>
+      <c r="P558" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q558" t="n">
         <v>46</v>
       </c>
@@ -50786,7 +50886,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P580" t="inlineStr"/>
+      <c r="P580" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q580" t="n">
         <v>9</v>
       </c>
@@ -51913,7 +52017,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P593" t="inlineStr"/>
+      <c r="P593" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q593" t="n">
         <v>23.8</v>
       </c>
@@ -53910,7 +54018,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P616" t="inlineStr"/>
+      <c r="P616" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q616" t="n">
         <v>15</v>
       </c>
@@ -54167,7 +54279,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P619" t="inlineStr"/>
+      <c r="P619" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q619" t="n">
         <v>15</v>
       </c>
@@ -54250,7 +54366,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P620" t="inlineStr"/>
+      <c r="P620" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q620" t="n">
         <v>15</v>
       </c>
@@ -56508,7 +56628,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P646" t="inlineStr"/>
+      <c r="P646" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q646" t="n">
         <v>12</v>
       </c>
@@ -57287,7 +57411,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P655" t="inlineStr"/>
+      <c r="P655" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q655" t="n">
         <v>7</v>
       </c>
@@ -58501,7 +58629,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P669" t="inlineStr"/>
+      <c r="P669" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q669" t="n">
         <v>15</v>
       </c>

--- a/wines_dataset.xlsx
+++ b/wines_dataset.xlsx
@@ -613,7 +613,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/120-Reserva-Especial-2019-Chardonnay-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/120-Reserva-Especial-Syrah-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/42-Zura-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/A.S-Boires-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/A.S-Cava-Brut-Nature-Gran-Reserva-Sello-Organic-2016-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Abadia-Da-Cova-1124,-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Abadia-Da-Cova-Mencia-2020-Rose-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Abadia-Da-Cova-Organic-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Abadia-Da-Cova-Xuno-Vina-Vieja-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/AD-Libitum-Maturana-Blanca-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Ad-Libitum-Maturana-Tinta-Rioja-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Alabaster-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Alboca-Crianza-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Alboca-Roble-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Alboca-Tinto-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Aldeya-Chardonnay-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Aldeya-Organic-2019-Rose-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Alion-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Almirez-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Alonso-del-Yerro-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Alta-Alella-Dolc-Mataro-Organic-2019-Sweet-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Alta-Alella-GX-Organic-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Alta-Alella-Laieta-Gran-Reserva-Organic-2017-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Alta-Alella-Parvus-Chardonnay-Organic-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Alta-Alella-Parvus-Organic-2020-Rose-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Alternativa-0.0-Rosso-Superiore-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Alternativa-Bianco-0.0-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Alternativa-Bollicine-Bianco-Dry-0.0-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Alternativa-Bollicine-Bianco-Sweet-0.0-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Altico-Vegan-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Altos-de-Losada-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Altos-de-Torona-Albarino-2022-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Altos-de-Torona-Rosal-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Altos-R-Pigeage-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Altos-R-Pigeage-Graciano-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Amaren-Barrel-Fermented-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Amaren-Malvasía-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Amaren-Reserva-2011-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Amaren-Seleccion-de-Viñedos-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Amavida-Treixadura-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Americo-Roble-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Amphora-de-Cobija-del-Pobre-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Angeles-de-Amaren-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Anna-de-Codorniu-Brut-Nature?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/AR-Colheita-Especial-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/AR-Colheita-Especial-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/AR-Reserva-Red-Wine-2018?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Aracelis-Organic-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Arbo-Malbec-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Ariela-Red-Wine-2017?</t>
+          <t>https://disndis.com/products/ariela-white?variant=42821456462039</t>
         </is>
       </c>
     </row>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Ariela-White-Wine-2017?</t>
+          <t>https://disndis.com/products/ariela-white?variant=42821456462039</t>
         </is>
       </c>
     </row>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Aries-Red-Wine-2020?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Arima-Vendimia-Tardia-2019-Sweet-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Arrayan-Rose-Wine-2020?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Arrayan-Seleccion-Merlot-Organic-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Arrayan-Syrah-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Arroyo-de-Arrayan-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Atlantis-Albarino-2020-White-Wine?</t>
+          <t>https://disndis.com/products/vino-tinto-gran-sello-semicrianza-tempranillo-syrah-2020?variant=46910665392454</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Atlantis-Godello-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Atlantis-Treixadura-Organic-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Atlantis-Txakoli-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -5920,7 +5920,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Baigorri-Crianza-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Barbera-d'Asti-Rosso-Fuoco-Organic-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Barolo-Paesi-Tuoi-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Baron-de-Chanteclerc-Alcohol-Free-Sparkling-Wine?</t>
+          <t>https://disndis.com/products/baron-de-chanteclerc-alcohol-free-sparkling-wine-rose?variant=46767721513286</t>
         </is>
       </c>
     </row>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Baron-de-Chanteclerc-Alcohol-Free-Sparkling-Wine-Rose?</t>
+          <t>https://disndis.com/products/baron-de-chanteclerc-alcohol-free-sparkling-wine-rose?variant=46767721513286</t>
         </is>
       </c>
     </row>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Barranco-del-San-Gines-2015-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Bergerie-de-l-Hortus-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Bergerie-de-L-Hortus-2020-Rose-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -6616,7 +6616,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Bergerie-de-L-Hortus-2021-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -6703,7 +6703,7 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/BERTIC0%T-Alcohol-Free-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -6790,7 +6790,7 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/BERTIC0%T-No-Alcohol-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/BERTIC0%T-No-Alcohol-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Beso-de-Sirena-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Bidaia-Txakolina-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -7138,7 +7138,7 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Blanc-Pescador-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Blas-Muñoz-Barrica-Chardonnay-2022-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -7312,7 +7312,7 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Blau-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -7399,7 +7399,7 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/BM-58-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Bordeaux-58-Graves-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Bordeaux-58-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Bordeaux-Passion-5-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -7747,7 +7747,7 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Born-to-be-Free-Red-Alcohol-Free-Wine-0.0%?</t>
+          <t>https://disndis.com/products/born-to-be-free-rose-alcohol-free?variant=46767707619654</t>
         </is>
       </c>
     </row>
@@ -7834,7 +7834,7 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Born-to-be-Free-Rose-Alcohol-Free-Wine?</t>
+          <t>https://disndis.com/products/born-to-be-free-rose-alcohol-free?variant=46767707619654</t>
         </is>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Bourgogne-Aligot‚-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -8008,7 +8008,7 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Brihlo-Nobre-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Brochet-Zero-Organic-Alcohol-Free-Sauvignon-Blanc?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -8182,7 +8182,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Brouilly-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Bulles-de-Sarment-Deacoholized-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Busuioaca-de-Bohotin-Eclipse-2021-Demi-Sweet-Rose-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cabanelas-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -8530,7 +8530,7 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Calabobos-2016-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Calera-Chardonnay-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -8704,7 +8704,7 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cami-de-Cormes-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cami-de-Cormes-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -8878,7 +8878,7 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cantos-Valpiedra-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -8965,7 +8965,7 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Carchelo-Ciento80-Organic-Vegan-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -9052,7 +9052,7 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Carchelo-Selecto-2015-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cardio-Zero-Alcohol-Free-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -9226,7 +9226,7 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cardio-Zero-Alcohol-Free-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Carmes-de-Rieussec-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -9400,7 +9400,7 @@
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Carpineto-Chianti-Classico-2019-Red-Wine?</t>
+          <t>https://disndis.com/products/carpineto-chianti-classico-2019?variant=42821469143255</t>
         </is>
       </c>
     </row>
@@ -9487,7 +9487,7 @@
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Casa-da-Urra-2017-Red-Wine?</t>
+          <t>https://disndis.com/products/casa-da-urra-rose-wine-2019?variant=42753585873111</t>
         </is>
       </c>
     </row>
@@ -9574,7 +9574,7 @@
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Casa-da-Urra-2019-Rose-Wine?</t>
+          <t>https://disndis.com/products/casa-da-urra-rose-wine-2019?variant=42753585873111</t>
         </is>
       </c>
     </row>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Casa-da-Urra-2020-White-Wine?</t>
+          <t>https://disndis.com/products/casa-da-urra-rose-wine-2019?variant=42753585873111</t>
         </is>
       </c>
     </row>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Casa-da-Urra-Colheita-Seleccionada-2017-Red-Wine?</t>
+          <t>https://disndis.com/products/casa-da-urra-rose-wine-2019?variant=42753585873111</t>
         </is>
       </c>
     </row>
@@ -9835,7 +9835,7 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Casa-da-Urra-Colheita-Seleccionada-2018-White-Wine?</t>
+          <t>https://disndis.com/products/casa-da-urra-rose-wine-2019?variant=42753585873111</t>
         </is>
       </c>
     </row>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Casa-da-Urra-Reserva-2017-Red-Wine?</t>
+          <t>https://disndis.com/products/casa-da-urra-rose-wine-2019?variant=42753585873111</t>
         </is>
       </c>
     </row>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Casa-da-Urra-Reserva-2017-White-Wine?</t>
+          <t>https://disndis.com/products/casa-da-urra-rose-wine-2019?variant=42753585873111</t>
         </is>
       </c>
     </row>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Casa-Magrez-Uruguay-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -10183,7 +10183,7 @@
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Castillo-de-Monjardin-Deyo-Merlot-de-Autor-Red-Wine-2017?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -10270,7 +10270,7 @@
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Castillo-Monjardin-Chardonnay-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -10357,7 +10357,7 @@
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Adernats-Brut-Nature-Reserva-2017-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Adernats-Gran-Reserva-Pur-2012-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -10531,7 +10531,7 @@
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Alegoria-Reserva-Brut-2016-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -10618,7 +10618,7 @@
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Blanc-de-Noirs-Gran-Reserva-2017-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -10705,7 +10705,7 @@
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Brut-Nature-Batllori-2019-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -10792,7 +10792,7 @@
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Brut-Nature-Gran-Reserva-2015-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Brut-Nature-Organic-2017-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Chapo-Reserva-Extra-Brut-2017-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -11053,7 +11053,7 @@
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Coratge-Brut-Reserva-Organic-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -11140,7 +11140,7 @@
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-El-Mas-Ferrer-GR-Familia-2016-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -11227,7 +11227,7 @@
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-El-Mas-Ferrer-Segle-XXI-2016-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Gran-Reserva-Jujol-Brut-Nature-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Gran-Reserva-Tradicio-Brut-Nature-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -11488,7 +11488,7 @@
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-La-Mitica-Brut-Rose-Organic-2017-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -11575,7 +11575,7 @@
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Laieta-Rose-Gran-Reserva-Organic-2017-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -11662,7 +11662,7 @@
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Majestuoso-Brut-Nature-Gran-Reserva-2017-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -11749,7 +11749,7 @@
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Maset-Brut-Reserva-Nu-Organic-2017-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -11836,7 +11836,7 @@
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Mastinell-Brut-Nature-Gran-Reserva-2011-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -11923,7 +11923,7 @@
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Mastinell-Brut-Real-Gran-Reserva-2016-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -12010,7 +12010,7 @@
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Mileni-Reserva-Brut-Nature-Organic-2016-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -12097,7 +12097,7 @@
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Rovellats-Col-leccio-Gran-Reserva-Extra-Brut-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -12184,7 +12184,7 @@
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Rovellats-Cuvee-Especial-Brut-Nature-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Sola-Raventos-Reserva-Brut-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -12358,7 +12358,7 @@
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cava-Stars-Organic-Perelada-2019-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cedula-Real-Gran-Reserva-2014-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -12532,7 +12532,7 @@
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Ceres-de-Haut-Bages-Liberal-Organic-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -12619,7 +12619,7 @@
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cerro-La-Isa-Vinedo-Singular-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -12706,7 +12706,7 @@
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chablis-Chardonnay-Jean-Marc-Brocard-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Champagne-Bollinger-Special-Cuvee-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Champagne-Canard-Duchene-Cuvee-Leonie-Brut-Sparkling-Wine?</t>
+          <t>https://disndis.com/products/champagne-canard-duchene-cuvee-leonie-brut?variant=42753588035799</t>
         </is>
       </c>
     </row>
@@ -12967,7 +12967,7 @@
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Champagne-Laurent-Perrier-Brut-La-Cuvee-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -13054,7 +13054,7 @@
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Champagne-Moet-&amp;-Chandon-Imperial-Brut-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -13141,7 +13141,7 @@
       </c>
       <c r="S146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Champagne-Taittinger-Brut-Reserve-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -13228,7 +13228,7 @@
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Champagne-Veuve-Clicquot-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chan-de-Rosas-Albarino-Clasico-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -13402,7 +13402,7 @@
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chapelle-de-Potensac-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -13489,7 +13489,7 @@
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chardonnay-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -13576,7 +13576,7 @@
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Ampelia-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -13663,7 +13663,7 @@
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Belingard-Cuvee-2017-White-Wine?</t>
+          <t>https://disndis.com/products/ch-belingard-cuvee-reserve-2017-monbazillac?variant=42766720598231</t>
         </is>
       </c>
     </row>
@@ -13750,7 +13750,7 @@
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Belles-Graves-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Clos-de-Bouard-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -13924,7 +13924,7 @@
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Clos-Fontaine-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-D-Armailhac-2012-Grand-Cru-Class‚-Red-Wine?</t>
+          <t>https://disndis.com/products/chateau-d-armailhac-2012-grand-cru-clasee?variant=42957286244567</t>
         </is>
       </c>
     </row>
@@ -14098,7 +14098,7 @@
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Dalem-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-de-Chantegrive-"Caroline"-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -14272,7 +14272,7 @@
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-du-Cedre-Heritage-Cuvee-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Du-Retout-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -14446,7 +14446,7 @@
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Grand-Boise-Rose-Wine-Organic-2020?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -14533,7 +14533,7 @@
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Grand-Faurie-La-Rose-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -14620,7 +14620,7 @@
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Haut-Lagrange-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -14707,7 +14707,7 @@
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Haut-Batailley-2012-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -14794,7 +14794,7 @@
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Jamais-Renoncer-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -14881,7 +14881,7 @@
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-la-Guillotiere-Clauzel-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -14968,7 +14968,7 @@
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-la-Landotte-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -15055,7 +15055,7 @@
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-la-Rose-Figeac-Organic-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -15142,7 +15142,7 @@
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Larcis-Ducasse-Red-Wine-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Leoville-Barton-2013-Red-Wine?</t>
+          <t>https://disndis.com/products/chateau-leoville-barton-2013-grand-cru?variant=42957261897943</t>
         </is>
       </c>
     </row>
@@ -15316,7 +15316,7 @@
       </c>
       <c r="S171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Lespault---Martillac-Red-Wine-2019?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -15403,7 +15403,7 @@
       </c>
       <c r="S172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Lilian-Ladouys-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -15490,7 +15490,7 @@
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Marjosse-Rouge-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Meyney-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -15664,7 +15664,7 @@
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Moulin-de-la-Rose-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -15751,7 +15751,7 @@
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Ormes-de-Pez-2013-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -15838,7 +15838,7 @@
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Pavie-Macquin-Premier-Grand-Cru-Class‚-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -15925,7 +15925,7 @@
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Phelan-Segur-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -16012,7 +16012,7 @@
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Puygueraud-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -16099,7 +16099,7 @@
       </c>
       <c r="S180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Roche-de-Lune-2019-White-Wine?</t>
+          <t>https://disndis.com/products/chateau-roche-de-lune-2019-touraine-white-wine?variant=42766720532695</t>
         </is>
       </c>
     </row>
@@ -16186,7 +16186,7 @@
       </c>
       <c r="S181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chateau-Segur-de-Cabanac-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -16273,7 +16273,7 @@
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chivite-Coleccion-125-Vendimia-Tardia-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -16360,7 +16360,7 @@
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Chivite-Collection-125-Reserve-2015-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -16447,7 +16447,7 @@
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cincuenta-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -16534,7 +16534,7 @@
       </c>
       <c r="S185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cindus-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="S186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Claouset-Zéro-Degré-Non-Alcoholic-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -16708,7 +16708,7 @@
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Clos-Beatus-Ille-Rouge-Organic-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -16795,7 +16795,7 @@
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Clos-del-Silenci-Negre-Seleccion-2015-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -16882,7 +16882,7 @@
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Clos-du-Marquis-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -16969,7 +16969,7 @@
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Clos-Haut-Peyraguey-Premier-Grand-Cru-Class‚-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -17056,7 +17056,7 @@
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Clos-Montebuena-Reserva-2015-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -17143,7 +17143,7 @@
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Clos-Puy-Arnaud-Organic-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -17230,7 +17230,7 @@
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Conde-de-los-Andes-Rioja-2016-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Conde-de-los-Andes-Tinto-Rioja-2015-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -17404,7 +17404,7 @@
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cotes-de-Nuits-Villages-Terres-Bourgondes-2018?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -17491,7 +17491,7 @@
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cotes-du-Rhone-Les-Abeilles-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -17578,7 +17578,7 @@
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cotes-du-Rhone-Reserve-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -17665,7 +17665,7 @@
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Crapula-Gold-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -17752,7 +17752,7 @@
       </c>
       <c r="S199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Crápula-Red-Wine-2020?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -17839,7 +17839,7 @@
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Crápula-Sauvignon-Blanc-White-Wine-2022?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -17926,7 +17926,7 @@
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cruz-del-Pendon-2018?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -18013,7 +18013,7 @@
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cuarenta-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -18100,7 +18100,7 @@
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cuatro-del-Cuatro-Vina-Zorzal-2019?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -18187,7 +18187,7 @@
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cuesta-del-Herrero-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -18274,7 +18274,7 @@
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cypher-Organic-Alcohol-Free-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Cypher-Rose-0%-Alcohol?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -18448,7 +18448,7 @@
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Damalisco-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -18535,7 +18535,7 @@
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Dame-de-Bouard-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -18622,7 +18622,7 @@
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/De-Alberto-Verdejo-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -18709,7 +18709,7 @@
       </c>
       <c r="S210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/De-los-Abuelos-Vinas-Centenarias-Godello-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -18796,7 +18796,7 @@
       </c>
       <c r="S211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/De-los-Abuelos-Vinas-Centenarias-Menc¡a-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -18883,7 +18883,7 @@
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/De-los-Abuelos-Vinedo-Barreiros-Godello-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -18970,7 +18970,7 @@
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/De-los-Abuelos-Vinedo-Barreiros-Mencia-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -19057,7 +19057,7 @@
       </c>
       <c r="S214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Dehesa-del-Carrizal-Chardonnay-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -19144,7 +19144,7 @@
       </c>
       <c r="S215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Dehesa-del-Carrizal-Coleccion-Privada-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -19231,7 +19231,7 @@
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Dehesa-del-Carrizal-Petit-Verdot-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -19318,7 +19318,7 @@
       </c>
       <c r="S217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Demasiado-Corazon-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -19405,7 +19405,7 @@
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Dolc-de-Neu-Organic-2020-White-Wine?</t>
+          <t>https://disndis.com/products/dolc-de-neu-organic-2020?variant=42814698782935</t>
         </is>
       </c>
     </row>
@@ -19492,7 +19492,7 @@
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Dominio-de-la-Abadesa-Crianza-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -19579,7 +19579,7 @@
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Dominio-de-la-Abadesa-Reserva-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -19666,7 +19666,7 @@
       </c>
       <c r="S221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Doña-Paula-Estate-Malbec-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -19753,7 +19753,7 @@
       </c>
       <c r="S222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Dosterras-Grenache-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -19840,7 +19840,7 @@
       </c>
       <c r="S223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Dosterras-Naixement-2015?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -19927,7 +19927,7 @@
       </c>
       <c r="S224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Dulce-de-Invierno-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -20014,7 +20014,7 @@
       </c>
       <c r="S225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Eclipse-Cupaj-Alb-2021-Demi-Dry-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -20101,7 +20101,7 @@
       </c>
       <c r="S226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Eclipse-Cupaj-Rosu-2018-Dry-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -20188,7 +20188,7 @@
       </c>
       <c r="S227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Eclipse-Cupaj-Roze-2021-Dry-Rose-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="S228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Eguren-Ugarte-Crianza-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -20362,7 +20362,7 @@
       </c>
       <c r="S229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Eguren-Ugarte-Graciano-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -20449,7 +20449,7 @@
       </c>
       <c r="S230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Eguren-Ugarte-Grenache-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -20536,7 +20536,7 @@
       </c>
       <c r="S231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Eguren-Ugarte-Maturana-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -20623,7 +20623,7 @@
       </c>
       <c r="S232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Eguren-Ugarte-Reserva-Red-Wine-2016?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -20710,7 +20710,7 @@
       </c>
       <c r="S233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Eguren-Ugarte-Reserva-White-Wine-2018?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -20797,7 +20797,7 @@
       </c>
       <c r="S234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Eguren-Ugarte-Tempranillo-Blanco-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -20884,7 +20884,7 @@
       </c>
       <c r="S235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Eguren-Ugarte-White-Crianza-2020-Vegan-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -20971,7 +20971,7 @@
       </c>
       <c r="S236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/El-Abrazo-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -21058,7 +21058,7 @@
       </c>
       <c r="S237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/El-Chiquer-De-Val-de-Horna-Garnacha-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -21145,7 +21145,7 @@
       </c>
       <c r="S238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/El-Ilusionista-Crianza-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -21232,7 +21232,7 @@
       </c>
       <c r="S239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/El-Ilusionista-Roble-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -21319,7 +21319,7 @@
       </c>
       <c r="S240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/El-Inquilino-Crianza-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -21406,7 +21406,7 @@
       </c>
       <c r="S241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/El-Inquilino-Viura-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -21493,7 +21493,7 @@
       </c>
       <c r="S242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/El-Jardin-de-la-Emperatriz-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -21580,7 +21580,7 @@
       </c>
       <c r="S243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/El-Jardin-de-la-Emperatriz-Tinto-Crianza-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -21667,7 +21667,7 @@
       </c>
       <c r="S244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/El-Lagar-de-Isilla-Coleccion-Reserva-2015-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -21754,7 +21754,7 @@
       </c>
       <c r="S245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/El-Lagar-de-Isilla-Reserva-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -21841,7 +21841,7 @@
       </c>
       <c r="S246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/El-Pajaro-Rojo-Mencia-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -21928,7 +21928,7 @@
       </c>
       <c r="S247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/El-Picaro-Vegan-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -22015,7 +22015,7 @@
       </c>
       <c r="S248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/El-Puntido-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -22102,7 +22102,7 @@
       </c>
       <c r="S249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/El-Recio-Vegan-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -22189,7 +22189,7 @@
       </c>
       <c r="S250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/El-Viejo-Vegan-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -22276,7 +22276,7 @@
       </c>
       <c r="S251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Elivo-Adegga-Baezza-Premium-Alcohol-Free-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -22363,7 +22363,7 @@
       </c>
       <c r="S252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Elivo-Adegga-Baezza-Premium-Alcohol-Free-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -22450,7 +22450,7 @@
       </c>
       <c r="S253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Elivo-Zero-Zero-Deluxe-Alcohol-Free-Rose-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -22537,7 +22537,7 @@
       </c>
       <c r="S254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Elivo-Zero-Zero-Deluxe-Sparkling-Alcohol-Free?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -22624,7 +22624,7 @@
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Elivo-Zero-Zero-Deluxe-Sparkling-Rose-Vegan-Halal-Alcohol-Free?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -22711,7 +22711,7 @@
       </c>
       <c r="S256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Elivo-Zero-Zero-Deluxe-Red-2020?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -22798,7 +22798,7 @@
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Elivo-Zero-Zero-Deluxe-White-Vegan-2022?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -22885,7 +22885,7 @@
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Emilio-Valerio-2018-Organic-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -22972,7 +22972,7 @@
       </c>
       <c r="S259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Emilio-Valerio-Aintzioa-Organic-2016-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -23059,7 +23059,7 @@
       </c>
       <c r="S260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Emilio-Valerio-Amburza-Organic-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -23146,7 +23146,7 @@
       </c>
       <c r="S261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Emilio-Valerio-Leorin-Organic-2013-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -23233,7 +23233,7 @@
       </c>
       <c r="S262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Emilio-Valerio-San-Martin-Organic-2013-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -23320,7 +23320,7 @@
       </c>
       <c r="S263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Epitafio-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -23407,7 +23407,7 @@
       </c>
       <c r="S264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Fabregas-Garnacha-Blanca-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -23494,7 +23494,7 @@
       </c>
       <c r="S265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Fabregas-Garnacha-Tinta-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -23581,7 +23581,7 @@
       </c>
       <c r="S266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Fabregas-Moristel-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -23668,7 +23668,7 @@
       </c>
       <c r="S267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Fabregas-Puro-Syrah-Crianza-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -23755,7 +23755,7 @@
       </c>
       <c r="S268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Feteasca-Alba-2021-Dry-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -23842,7 +23842,7 @@
       </c>
       <c r="S269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Feteasca-Alba-Authentique-2022-Dry-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -23929,7 +23929,7 @@
       </c>
       <c r="S270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Feteasca-Alba-Eclipse-2021-Dry-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -24016,7 +24016,7 @@
       </c>
       <c r="S271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Feteasca-Neagra-2013-Dry-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -24103,7 +24103,7 @@
       </c>
       <c r="S272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Finca-Aiguasals-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -24190,7 +24190,7 @@
       </c>
       <c r="S273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Finca-Azaya-Tempranillo-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -24277,7 +24277,7 @@
       </c>
       <c r="S274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Finca-Cascorrales-2015-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -24364,7 +24364,7 @@
       </c>
       <c r="S275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Finca-la-Emperatriz-Gran-Vino-2016-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -24451,7 +24451,7 @@
       </c>
       <c r="S276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Finca-la-Emperatriz-Gran-Vino-Tinto-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -24538,7 +24538,7 @@
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Finca-Legardeta-Chardonnay-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -24625,7 +24625,7 @@
       </c>
       <c r="S278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Finca-Legardeta-Garnacha-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -24712,7 +24712,7 @@
       </c>
       <c r="S279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Finca-Muñoz-Coleccion-de-la-Familia-White-Wine-2021?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -24799,7 +24799,7 @@
       </c>
       <c r="S280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Finca-Terrerazo-Bobal-Organic-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -24886,7 +24886,7 @@
       </c>
       <c r="S281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Finca-Valdemoya-Rose-Wine-2019?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -24973,7 +24973,7 @@
       </c>
       <c r="S282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Finca-Valpiedra-Reserva-2014-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -25060,7 +25060,7 @@
       </c>
       <c r="S283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Finques-Incansables-Garnatxa-Negre-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -25147,7 +25147,7 @@
       </c>
       <c r="S284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Finques-Incansables-Monastrell-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -25234,7 +25234,7 @@
       </c>
       <c r="S285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Flor-de-Cayus-Garnacha-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -25321,7 +25321,7 @@
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Flor-de-Goda-Garnacha-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -25408,7 +25408,7 @@
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Fonte-Seca-Grande-Escolha-2017?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -25495,7 +25495,7 @@
       </c>
       <c r="S288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Fonte-Seca-Red-Escolha-2017?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -25582,7 +25582,7 @@
       </c>
       <c r="S289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/French-Bloom-Le-Blanc-Organic-Alcohol-Free-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -25669,7 +25669,7 @@
       </c>
       <c r="S290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Fuenteseca-Organic-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -25756,7 +25756,7 @@
       </c>
       <c r="S291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Fundacion-1963-Reserva-2012-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -25843,7 +25843,7 @@
       </c>
       <c r="S292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/G22-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -25930,7 +25930,7 @@
       </c>
       <c r="S293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Gabriel-Martínez-Red-Wine-2019?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -26017,7 +26017,7 @@
       </c>
       <c r="S294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Garcia-Viadero-Blanco-Natural-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -26104,7 +26104,7 @@
       </c>
       <c r="S295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Gestacion-El-Lagar-de-Isilla-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -26191,7 +26191,7 @@
       </c>
       <c r="S296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/GG-Organic-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -26278,7 +26278,7 @@
       </c>
       <c r="S297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Glarima-de-Sommos-Chardonnay-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -26365,7 +26365,7 @@
       </c>
       <c r="S298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Glarima-de-Sommos-Tinto-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -26452,7 +26452,7 @@
       </c>
       <c r="S299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Gocce-di-Luna-Non-Alcoholic-Organic-Sparkling-Drink?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -26539,7 +26539,7 @@
       </c>
       <c r="S300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Godina-Garnacha-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -26626,7 +26626,7 @@
       </c>
       <c r="S301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Golem-Alb-2021-Dry-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -26713,7 +26713,7 @@
       </c>
       <c r="S302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Golem-Rosu-2015-Dry-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -26800,7 +26800,7 @@
       </c>
       <c r="S303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Gorka-Izagirre-2022-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -26887,7 +26887,7 @@
       </c>
       <c r="S304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Gran-Alanis-Treixadura-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -26974,7 +26974,7 @@
       </c>
       <c r="S305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Gran-Baroja-Gran-Reserva-2011-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -27061,7 +27061,7 @@
       </c>
       <c r="S306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Gran-Bierzo-Origen-Mencia-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -27148,7 +27148,7 @@
       </c>
       <c r="S307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Gran-Sello-Crianza-GST-2017-Red-Wine?</t>
+          <t>https://disndis.com/products/vino-tinto-gran-sello-crianza-gst-2017?variant=46910629806406</t>
         </is>
       </c>
     </row>
@@ -27235,7 +27235,7 @@
       </c>
       <c r="S308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Gran-Sello-Edicion-Especial-Tempranillo-2022-Rose-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -27322,7 +27322,7 @@
       </c>
       <c r="S309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Gran-Sello-Joven-Macabeo-Verdejo-2021-White-Wine?</t>
+          <t>https://disndis.com/products/vino-blanco-gran-sello-joven-macabeo-verdejo-2021?variant=46910644912454</t>
         </is>
       </c>
     </row>
@@ -27409,7 +27409,7 @@
       </c>
       <c r="S310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Gran-Sello-Organico-2016-Red-Wine?</t>
+          <t>https://disndis.com/products/vino-tinto-gran-sello-organico-2016?variant=46910653137222</t>
         </is>
       </c>
     </row>
@@ -27496,7 +27496,7 @@
       </c>
       <c r="S311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Gran-Sello-Semicrianza-Tempranillo-Syrah-2020-Red-Wine?</t>
+          <t>https://disndis.com/products/vino-tinto-gran-sello-semicrianza-tempranillo-syrah-2020?variant=46910665392454</t>
         </is>
       </c>
     </row>
@@ -27583,7 +27583,7 @@
       </c>
       <c r="S312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Great-Maranges-"Le-Saugeot"-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -27670,7 +27670,7 @@
       </c>
       <c r="S313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Hacienda-Lopez-de-Haro-Crianza-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -27757,7 +27757,7 @@
       </c>
       <c r="S314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Hacienda-Zorita-Magister-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -27844,7 +27844,7 @@
       </c>
       <c r="S315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Hacienda-Zorita-Natural-Reserve-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -27931,7 +27931,7 @@
       </c>
       <c r="S316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/HDL-Amphora-Organic-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -28018,7 +28018,7 @@
       </c>
       <c r="S317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/HDL-Aragonez-Tinto-Organic-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -28105,7 +28105,7 @@
       </c>
       <c r="S318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/HDL-Rose-Wine-Organic-2019?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -28192,7 +28192,7 @@
       </c>
       <c r="S319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/HDL-Touriga-Nacional-Organic-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -28279,7 +28279,7 @@
       </c>
       <c r="S320" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/HDL-Vinho-Organic-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -28366,7 +28366,7 @@
       </c>
       <c r="S321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/HDL-Vinho-Tinto-Organic-2020?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -28453,7 +28453,7 @@
       </c>
       <c r="S322" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Heracles-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -28540,7 +28540,7 @@
       </c>
       <c r="S323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Heraclio-Alfaro-Crianza-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -28627,7 +28627,7 @@
       </c>
       <c r="S324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Heraclio-Alfaro-Finca-Estarijo-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -28714,7 +28714,7 @@
       </c>
       <c r="S325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Herdade-Das-Servas-Colheita-Seleccionada-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -28801,7 +28801,7 @@
       </c>
       <c r="S326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Herdade-Das-Servas-Colheita-Seleccionada-Tinto-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -28888,7 +28888,7 @@
       </c>
       <c r="S327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Herdade-Das-Servas-Touriga-Nacional-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -28975,7 +28975,7 @@
       </c>
       <c r="S328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Herdade-Dos-Grous-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -29062,7 +29062,7 @@
       </c>
       <c r="S329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Herdade-Dos-Grous-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -29149,7 +29149,7 @@
       </c>
       <c r="S330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Herdade-Dos-Grous-23-Barricas-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -29236,7 +29236,7 @@
       </c>
       <c r="S331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Herdade-Dos-Grous-Reserva-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -29323,7 +29323,7 @@
       </c>
       <c r="S332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Heredad-de-Baroja-2022-Rose-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -29410,7 +29410,7 @@
       </c>
       <c r="S333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Heredad-de-Baroja-Crianza-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -29497,7 +29497,7 @@
       </c>
       <c r="S334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Heredad-de-Baroja-Cuvee-Especial-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -29584,7 +29584,7 @@
       </c>
       <c r="S335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Heredad-de-Baroja-Gran-Reserva-2012-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -29671,7 +29671,7 @@
       </c>
       <c r="S336" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Heredad-de-Baroja-Joven-2022-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -29758,7 +29758,7 @@
       </c>
       <c r="S337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Heredad-de-Baroja-Tinto-Joven-Tempranillo-2021-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -29845,7 +29845,7 @@
       </c>
       <c r="S338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Herencia-Altes-Celastrina-Organic-2020-Rose-Wine?</t>
+          <t>https://disndis.com/products/herencia-altes-celastrina-2020?variant=42821461442775</t>
         </is>
       </c>
     </row>
@@ -29932,7 +29932,7 @@
       </c>
       <c r="S339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Herms-Rose-Terra-Alta-2019-Rose-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -30019,7 +30019,7 @@
       </c>
       <c r="S340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Hispania-de-Territorio-Luthier-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -30106,7 +30106,7 @@
       </c>
       <c r="S341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Ilun-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -30193,7 +30193,7 @@
       </c>
       <c r="S342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Ilusionista-Verdejo-2022-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -30280,7 +30280,7 @@
       </c>
       <c r="S343" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Imani-Chianti-Bernard-Magrez-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -30367,7 +30367,7 @@
       </c>
       <c r="S344" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Imani-Prosecco-Sparkling-Wine?</t>
+          <t>https://disndis.com/products/imani-prosecco</t>
         </is>
       </c>
     </row>
@@ -30454,7 +30454,7 @@
       </c>
       <c r="S345" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Imani-Toscana-Bernard-Magrez-2018-Red-Wine?</t>
+          <t>https://disndis.com/products/imani-toscana-bernard-magrez?variant=42821457543383</t>
         </is>
       </c>
     </row>
@@ -30541,7 +30541,7 @@
       </c>
       <c r="S346" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Immortalis-Albarino-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -30628,7 +30628,7 @@
       </c>
       <c r="S347" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Immortalis-Garnacha-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -30715,7 +30715,7 @@
       </c>
       <c r="S348" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Immortalis-Monastrell-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -30802,7 +30802,7 @@
       </c>
       <c r="S349" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Intrus-Merlot-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -30889,7 +30889,7 @@
       </c>
       <c r="S350" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Irache-1891-Crianza-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -30976,7 +30976,7 @@
       </c>
       <c r="S351" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Irache-1891-Joven-2021-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -31063,7 +31063,7 @@
       </c>
       <c r="S352" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Irache-1891-Joven-Grenache-2021-Rose-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -31150,7 +31150,7 @@
       </c>
       <c r="S353" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Isla-Airen-D.O.-La-Mancha-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -31237,7 +31237,7 @@
       </c>
       <c r="S354" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Isla-Cabernet-D.O.-La-Mancha-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -31324,7 +31324,7 @@
       </c>
       <c r="S355" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Isla-Merlot-D.O-La-Mancha-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -31411,7 +31411,7 @@
       </c>
       <c r="S356" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Jamais-Renoncer-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -31498,7 +31498,7 @@
       </c>
       <c r="S357" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Jaraba-Selección-Especial-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -31585,7 +31585,7 @@
       </c>
       <c r="S358" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Jarabe-Almazcara-Majara-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -31672,7 +31672,7 @@
       </c>
       <c r="S359" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Javier-Sanz-Rueda-Demidulce-2020?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -31759,7 +31759,7 @@
       </c>
       <c r="S360" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Javier-Sanz-Sauvignon-Blanc-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -31846,7 +31846,7 @@
       </c>
       <c r="S361" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Jose-Pariente-Verdejo-2022?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -31933,7 +31933,7 @@
       </c>
       <c r="S362" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Jota-de-Toro-Tinto-Joven,-DJ-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -32020,7 +32020,7 @@
       </c>
       <c r="S363" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Jota-de-Toro,-Crianza-12-months-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -32107,7 +32107,7 @@
       </c>
       <c r="S364" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Jota-de-Toro,-Roble-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -32194,7 +32194,7 @@
       </c>
       <c r="S365" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Jota-de-Toro,-Verdejo-Barrica-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -32281,7 +32281,7 @@
       </c>
       <c r="S366" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Julienas-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -32368,7 +32368,7 @@
       </c>
       <c r="S367" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Juve-Camps-Brut-Nature-Organic-2016-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -32455,7 +32455,7 @@
       </c>
       <c r="S368" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Kahina-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -32542,7 +32542,7 @@
       </c>
       <c r="S369" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Kisumé-Alcohol-Free-Sparkling-Rose-0%?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -32629,7 +32629,7 @@
       </c>
       <c r="S370" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/L-Optimiste-Rouge-Organic-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -32716,7 +32716,7 @@
       </c>
       <c r="S371" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/L-or-du-diable-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -32803,7 +32803,7 @@
       </c>
       <c r="S372" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/L-Oratge-Blanc-Organic-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -32890,7 +32890,7 @@
       </c>
       <c r="S373" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/L-Oratge-Negre-Organic-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -32977,7 +32977,7 @@
       </c>
       <c r="S374" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/La-Bienvenida-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -33064,7 +33064,7 @@
       </c>
       <c r="S375" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/La-Bona-Vida-Brut?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -33151,7 +33151,7 @@
       </c>
       <c r="S376" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/La-Botera-Cabernet-Sauvignon-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -33238,7 +33238,7 @@
       </c>
       <c r="S377" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/La-Cuvée-2022-Blanc-de-Blancs-Alcohol-Free-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -33325,7 +33325,7 @@
       </c>
       <c r="S378" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/La-Flamenca-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -33412,7 +33412,7 @@
       </c>
       <c r="S379" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/La-Ganivelle-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -33499,7 +33499,7 @@
       </c>
       <c r="S380" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/La-Ganivelle-Rouge-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -33586,7 +33586,7 @@
       </c>
       <c r="S381" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/La-Garnacha-Organic-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -33673,7 +33673,7 @@
       </c>
       <c r="S382" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/La-Jota-de-To,-Verdejo-sobre-lias-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -33760,7 +33760,7 @@
       </c>
       <c r="S383" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/La-Mar-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -33847,7 +33847,7 @@
       </c>
       <c r="S384" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/LA-MAROTTE-2018-Cotes-de-Bordeaux-Rouge?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -33934,7 +33934,7 @@
       </c>
       <c r="S385" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/La-Marotte-Cuvee-de-Manu-Organic-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -34021,7 +34021,7 @@
       </c>
       <c r="S386" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/La-Milonga-2019?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -34108,7 +34108,7 @@
       </c>
       <c r="S387" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/La-Nave-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="S388" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/La-Pilosa-Organic-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -34282,7 +34282,7 @@
       </c>
       <c r="S389" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/La-suerte-de-Arrayan-Grenache-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -34369,7 +34369,7 @@
       </c>
       <c r="S390" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Lagar-Da-Condesa-Albarino-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -34456,7 +34456,7 @@
       </c>
       <c r="S391" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Lagar-da-Costa-Rosado-2020?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -34543,7 +34543,7 @@
       </c>
       <c r="S392" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Lagarona-Cepas-Viejas-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -34630,7 +34630,7 @@
       </c>
       <c r="S393" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Lara-O-De-Territorio-Luthier-Crianza-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -34717,7 +34717,7 @@
       </c>
       <c r="S394" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Lara-O-De-Territorio-Luthier-Crianza-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -34804,7 +34804,7 @@
       </c>
       <c r="S395" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Las-Moradas-de-San-Mart¡n-La-Sabina-2014-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -34891,7 +34891,7 @@
       </c>
       <c r="S396" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Las-Moradas-de-San-Martin-Albillo-Real-Organic-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -34978,7 +34978,7 @@
       </c>
       <c r="S397" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Las-Tierras-de-Javier-Rodriguez-Garnacha-Barrica-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -35065,7 +35065,7 @@
       </c>
       <c r="S398" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Las-Tierras-de-Javier-Rodriguez-Original-2014-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -35152,7 +35152,7 @@
       </c>
       <c r="S399" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Las-Tierras-El-Pego-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -35239,7 +35239,7 @@
       </c>
       <c r="S400" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Las-Tierras-El-Teso-Alto-2015-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -35326,7 +35326,7 @@
       </c>
       <c r="S401" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Laventura-Grenache-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -35413,7 +35413,7 @@
       </c>
       <c r="S402" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Laventura-Viura-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -35500,7 +35500,7 @@
       </c>
       <c r="S403" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Le-Chant-des-Griots-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -35587,7 +35587,7 @@
       </c>
       <c r="S404" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Le-Dragon-de-Quintus-Grand-Cru-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -35674,7 +35674,7 @@
       </c>
       <c r="S405" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Le-Paon-Rouge-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -35761,7 +35761,7 @@
       </c>
       <c r="S406" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Le-Petit-Beret-Organic-Non-Alcoholic-Red-Wine-2020?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -35848,7 +35848,7 @@
       </c>
       <c r="S407" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Le-Rosé-Organic-Alcohol-Free-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -35935,7 +35935,7 @@
       </c>
       <c r="S408" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Le-Versant-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -36022,7 +36022,7 @@
       </c>
       <c r="S409" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Les-Crestes-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -36109,7 +36109,7 @@
       </c>
       <c r="S410" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Les-Hauts-du-Tertre-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -36196,7 +36196,7 @@
       </c>
       <c r="S411" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Les-Jardins-de-Soutard-2014-Saint-Emilion-Grand-Cru-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -36283,7 +36283,7 @@
       </c>
       <c r="S412" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Les-Preludes-Macon-2020?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -36370,7 +36370,7 @@
       </c>
       <c r="S413" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Leyenda-Casa-Magrez-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -36457,7 +36457,7 @@
       </c>
       <c r="S414" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Llopart-Brut-Nature-Integral-2020-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -36544,7 +36544,7 @@
       </c>
       <c r="S415" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Loess-Inspiration-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -36631,7 +36631,7 @@
       </c>
       <c r="S416" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Loess-Rueda-2019?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -36718,7 +36718,7 @@
       </c>
       <c r="S417" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Los-Cardos-Cabernet-Sauvignon-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -36805,7 +36805,7 @@
       </c>
       <c r="S418" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Los-Cardos-Chardonnay-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -36892,7 +36892,7 @@
       </c>
       <c r="S419" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Losada-Godello-2018?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -36979,7 +36979,7 @@
       </c>
       <c r="S420" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Lou-Cinsault-Domaine-Le-Clos-Rivieral-Organic-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -37066,7 +37066,7 @@
       </c>
       <c r="S421" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Lou-Maset-Rouge-Organic-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -37153,7 +37153,7 @@
       </c>
       <c r="S422" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Luis-Canas-Crianza-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -37240,7 +37240,7 @@
       </c>
       <c r="S423" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Luis-Canas-Gran-Reserva-2014-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -37327,7 +37327,7 @@
       </c>
       <c r="S424" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Luis-Canas-Reserva-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -37414,7 +37414,7 @@
       </c>
       <c r="S425" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Luis-Canas-Reserva-Seleccion-de-la-Familia-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -37501,7 +37501,7 @@
       </c>
       <c r="S426" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Luis-Canas-Vinas-Viejas-2021-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -37588,7 +37588,7 @@
       </c>
       <c r="S427" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Magnum-Cupatge-Dos-Mil-Setze-Reserva-Brut-Organic-2016-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -37675,7 +37675,7 @@
       </c>
       <c r="S428" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Magrez-Aruga-Blanc?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -37762,7 +37762,7 @@
       </c>
       <c r="S429" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Maio-Albarino-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -37849,7 +37849,7 @@
       </c>
       <c r="S430" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mallolet-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -37936,7 +37936,7 @@
       </c>
       <c r="S431" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mallolet-Rosat-2019-Rose-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -38023,7 +38023,7 @@
       </c>
       <c r="S432" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mantel-Blanco-Sauvignon-Blanc-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -38110,7 +38110,7 @@
       </c>
       <c r="S433" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mantel-Blanco-Verdejo-Barrica-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -38197,7 +38197,7 @@
       </c>
       <c r="S434" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mar-de-Frades-Albarino-2021-Vegan-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -38284,7 +38284,7 @@
       </c>
       <c r="S435" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mar‚-Viva-Reserva-White-2018?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -38371,7 +38371,7 @@
       </c>
       <c r="S436" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mare-Viva-Reserva-Red-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -38458,7 +38458,7 @@
       </c>
       <c r="S437" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Maremel-Albariño-2020-Semiseco-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -38545,7 +38545,7 @@
       </c>
       <c r="S438" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mariluna-Organic-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -38632,7 +38632,7 @@
       </c>
       <c r="S439" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Marques-de-Caceres-Crianza-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -38719,7 +38719,7 @@
       </c>
       <c r="S440" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Marques-de-Grinon-Cabernet-Sauvignon-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -38806,7 +38806,7 @@
       </c>
       <c r="S441" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Marques-de-Grinon-Caliza-2014-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -38893,7 +38893,7 @@
       </c>
       <c r="S442" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Marques-De-Grinon-Graciano-2013-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -38980,7 +38980,7 @@
       </c>
       <c r="S443" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Marques-de-Grinon-MDG-Emeritus-2013-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -39067,7 +39067,7 @@
       </c>
       <c r="S444" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Marques-de-Grinon-Petit-Verdot-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -39154,7 +39154,7 @@
       </c>
       <c r="S445" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Marques-de-Grinon-Syrah-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -39241,7 +39241,7 @@
       </c>
       <c r="S446" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Marques-de-Murrieta-Reserva-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -39328,7 +39328,7 @@
       </c>
       <c r="S447" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mascaro-Ambrosia-Reserva-Sparkling-Wine?</t>
+          <t>https://disndis.com/products/mascaro-ambrosia-reserva-sparkling-wine?variant=46860919570758</t>
         </is>
       </c>
     </row>
@@ -39415,7 +39415,7 @@
       </c>
       <c r="S448" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mascaro-Brut-Nature-Reserva-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -39502,7 +39502,7 @@
       </c>
       <c r="S449" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mascaró-Gran-Reserva-Brut-Nature-Cuvee-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -39589,7 +39589,7 @@
       </c>
       <c r="S450" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mascaró-Nigrum-Reserva-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -39676,7 +39676,7 @@
       </c>
       <c r="S451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mascaró-Pure-Rubor-Rose-Brut-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -39763,7 +39763,7 @@
       </c>
       <c r="S452" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Maset-Cava-Brut-Reserva-Organic-2018-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -39850,7 +39850,7 @@
       </c>
       <c r="S453" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Matilda-Nieves-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -39937,7 +39937,7 @@
       </c>
       <c r="S454" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/MC-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -40024,7 +40024,7 @@
       </c>
       <c r="S455" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/MC-Joven-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -40111,7 +40111,7 @@
       </c>
       <c r="S456" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/MC-Reserva-Magnum-2015-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -40198,7 +40198,7 @@
       </c>
       <c r="S457" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mencia-Abadia-Da-Cova-Organic-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -40285,7 +40285,7 @@
       </c>
       <c r="S458" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Merlot-Columbia-Valley-2017?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -40372,7 +40372,7 @@
       </c>
       <c r="S459" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Merlot-Eclipse-2019-Dry-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -40459,7 +40459,7 @@
       </c>
       <c r="S460" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mes-Que-Paraules-Negre-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -40546,7 +40546,7 @@
       </c>
       <c r="S461" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mes-Que-Paraules-Organic-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -40633,7 +40633,7 @@
       </c>
       <c r="S462" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mestizaje-Organic-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -40720,7 +40720,7 @@
       </c>
       <c r="S463" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mestizaje-Tinto-Organic-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -40807,7 +40807,7 @@
       </c>
       <c r="S464" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mingorra-Alvarinho-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -40894,7 +40894,7 @@
       </c>
       <c r="S465" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mingorra-Black-Alentejo-Regional-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -40981,7 +40981,7 @@
       </c>
       <c r="S466" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mingorra-Colheita-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -41068,7 +41068,7 @@
       </c>
       <c r="S467" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mingorra-Colheita-Tinto-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -41155,7 +41155,7 @@
       </c>
       <c r="S468" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mingorra-Reserve-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -41242,7 +41242,7 @@
       </c>
       <c r="S469" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mingorra-Sauvignon-Blanc-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -41329,7 +41329,7 @@
       </c>
       <c r="S470" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mingua-Rose-Wine-2020?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -41416,7 +41416,7 @@
       </c>
       <c r="S471" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mingua-Tinto-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -41503,7 +41503,7 @@
       </c>
       <c r="S472" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Moderato-Cuvée-Original-Le-Pétillant-Non-Alcoholic-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -41590,7 +41590,7 @@
       </c>
       <c r="S473" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Moderato-Cuvée-Originale-Le-Blanc-Non-Alcoholic-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -41677,7 +41677,7 @@
       </c>
       <c r="S474" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Moderato-Cuvée-Originale-Le-Rose-Non-Alcoholic-Rose-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -41764,7 +41764,7 @@
       </c>
       <c r="S475" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Moderato-Cuvée-Originale-Le-Rouge-Non-Alcoholic-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -41851,7 +41851,7 @@
       </c>
       <c r="S476" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Molt-Mes-Que-Paraules-2013-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -41938,7 +41938,7 @@
       </c>
       <c r="S477" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mon-Plaisir-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -42025,7 +42025,7 @@
       </c>
       <c r="S478" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Mon-Secret-2021-Rose-Wine?</t>
+          <t>https://disndis.com/products/rose-wine-mon-secret-2021?variant=42821457969367</t>
         </is>
       </c>
     </row>
@@ -42112,7 +42112,7 @@
       </c>
       <c r="S479" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Monjardin-Chardonnay-Superior-Reserva-2016-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -42199,7 +42199,7 @@
       </c>
       <c r="S480" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Montedas-Servas-Escolha-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -42286,7 +42286,7 @@
       </c>
       <c r="S481" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Morca-Garnacha-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -42373,7 +42373,7 @@
       </c>
       <c r="S482" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Morgon-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -42460,7 +42460,7 @@
       </c>
       <c r="S483" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Moscato-d'Asti-La-Gatta-2021-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -42547,7 +42547,7 @@
       </c>
       <c r="S484" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Muga-Crianza-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -42634,7 +42634,7 @@
       </c>
       <c r="S485" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Musivari-Brut-Nature-2007-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -42721,7 +42721,7 @@
       </c>
       <c r="S486" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Nacido-Del-Quórum-Red-Wine--2020?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -42808,7 +42808,7 @@
       </c>
       <c r="S487" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Nero-d'Avola-A-Zita-Cu-Zitu-Organic-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -42895,7 +42895,7 @@
       </c>
       <c r="S488" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/No-Limit-Alcohol-Free-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -42982,7 +42982,7 @@
       </c>
       <c r="S489" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/No-Limit-Alcohol-Free-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -43069,7 +43069,7 @@
       </c>
       <c r="S490" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/No-Limit-Alcohol-Free-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -43156,7 +43156,7 @@
       </c>
       <c r="S491" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Nr.-403-Cabernet-Sauvignon-Red-Wine-0.0%?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -43243,7 +43243,7 @@
       </c>
       <c r="S492" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Nude-Tintilla-Barbadillo-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -43330,7 +43330,7 @@
       </c>
       <c r="S493" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/O-Fillo-da-Condesa-Albari¤o-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -43417,7 +43417,7 @@
       </c>
       <c r="S494" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Ochenta-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -43504,7 +43504,7 @@
       </c>
       <c r="S495" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Ontanon-Antolog¡a-Crianza-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -43591,7 +43591,7 @@
       </c>
       <c r="S496" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Ontanon-Clarete-2020?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -43678,7 +43678,7 @@
       </c>
       <c r="S497" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Ontanon-Crianza-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -43765,7 +43765,7 @@
       </c>
       <c r="S498" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Ontanon-Gran-Reserva-2010-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -43852,7 +43852,7 @@
       </c>
       <c r="S499" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Ontanon-Reserva-2010-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -43939,7 +43939,7 @@
       </c>
       <c r="S500" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Ontanon-Vetiver-Viura-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -44026,7 +44026,7 @@
       </c>
       <c r="S501" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pago-A-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -44113,7 +44113,7 @@
       </c>
       <c r="S502" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pago-de-Cirsus--Oak-Aged-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -44200,7 +44200,7 @@
       </c>
       <c r="S503" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pago-de-Cirsus-Chardonnay-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -44287,7 +44287,7 @@
       </c>
       <c r="S504" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pago-de-Cirsus-Chardonnay-Barrica-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -44374,7 +44374,7 @@
       </c>
       <c r="S505" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pago-de-Cirsus-Cuvee-Especial-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -44461,7 +44461,7 @@
       </c>
       <c r="S506" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pago-de-Cirsus-Seleccion-de-Familia-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -44548,7 +44548,7 @@
       </c>
       <c r="S507" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pago-de-Cirsus-Vendimia-Seleccionada-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -44635,7 +44635,7 @@
       </c>
       <c r="S508" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pago-de-La-Jaraba-2020-Vino-de-Pago-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -44722,7 +44722,7 @@
       </c>
       <c r="S509" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pago-de-Larrainzar-Especial-Reserva-2014-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -44809,7 +44809,7 @@
       </c>
       <c r="S510" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pago-de-Valdoneje-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -44896,7 +44896,7 @@
       </c>
       <c r="S511" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pago-de-Valdoneje-El-Valao-2019?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -44983,7 +44983,7 @@
       </c>
       <c r="S512" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pago-de-Valdoneje-Godello-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -45070,7 +45070,7 @@
       </c>
       <c r="S513" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pago-de-Valdoneje-Vinas-Viejas-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -45157,7 +45157,7 @@
       </c>
       <c r="S514" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pago-Dehesa-del-Carrizal-MV-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -45244,7 +45244,7 @@
       </c>
       <c r="S515" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pago-E-2015-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -45331,7 +45331,7 @@
       </c>
       <c r="S516" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pago-la-Jaraba-2022-Organic-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -45418,7 +45418,7 @@
       </c>
       <c r="S517" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pantocrator-Reserva-2010-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -45505,7 +45505,7 @@
       </c>
       <c r="S518" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Paraje-Penalobo-El-Lagar-de-Isilla-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -45592,7 +45592,7 @@
       </c>
       <c r="S519" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pas-de-Sucre-Brut-Nature-Gran-Reserva-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -45679,7 +45679,7 @@
       </c>
       <c r="S520" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pasal-de-Esile-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -45766,7 +45766,7 @@
       </c>
       <c r="S521" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pasion-de-Moscatel-Blanco-Organic-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -45853,7 +45853,7 @@
       </c>
       <c r="S522" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Paydos-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -45940,7 +45940,7 @@
       </c>
       <c r="S523" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pearl-Blanc-Sparkling-Organic-White-0.0%?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -46027,7 +46027,7 @@
       </c>
       <c r="S524" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pena-el-Gato-Natural-Grenache-Red-Wine-2019?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -46114,7 +46114,7 @@
       </c>
       <c r="S525" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pena-Zuela-Vendimia-Seleccionada-Garnacha-Blanca-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -46201,7 +46201,7 @@
       </c>
       <c r="S526" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pena-Zuela-Vendimia-Seleccionada-Grenache-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -46288,7 +46288,7 @@
       </c>
       <c r="S527" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Perelada-Garnatxa-de-l`Emporda-12-anys-reserva?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -46375,7 +46375,7 @@
       </c>
       <c r="S528" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Phénomène-De-alcoholized-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -46462,7 +46462,7 @@
       </c>
       <c r="S529" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Piedra-Crianza-Organic-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -46549,7 +46549,7 @@
       </c>
       <c r="S530" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Piedra-Natural-Organic-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -46636,7 +46636,7 @@
       </c>
       <c r="S531" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Piedra-Prohibida-Organic-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -46723,7 +46723,7 @@
       </c>
       <c r="S532" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Piedra-Reserva-2014-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -46810,7 +46810,7 @@
       </c>
       <c r="S533" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Piedra-Verdejo-Organic-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -46897,7 +46897,7 @@
       </c>
       <c r="S534" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pierres-Fendues-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -46984,7 +46984,7 @@
       </c>
       <c r="S535" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pinna-Fidelis-Condominio-Joven-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -47071,7 +47071,7 @@
       </c>
       <c r="S536" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pinot-Grigio-Valdadige-2021-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -47158,7 +47158,7 @@
       </c>
       <c r="S537" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pinot-Noir-"Petit-Clos"-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -47245,7 +47245,7 @@
       </c>
       <c r="S538" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Plan-de-Dieu-Rouge-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -47332,7 +47332,7 @@
       </c>
       <c r="S539" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Porta-da-R¡a-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -47419,7 +47419,7 @@
       </c>
       <c r="S540" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/PR-Blanco-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -47506,7 +47506,7 @@
       </c>
       <c r="S541" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pradorey-Origen-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -47593,7 +47593,7 @@
       </c>
       <c r="S542" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pradorey-Verdejo-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -47680,7 +47680,7 @@
       </c>
       <c r="S543" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Premiere-Bergerac-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -47767,7 +47767,7 @@
       </c>
       <c r="S544" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Premiere-Cahors-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -47854,7 +47854,7 @@
       </c>
       <c r="S545" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Premiere-California-Syrah-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -47941,7 +47941,7 @@
       </c>
       <c r="S546" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Premiere-Madiran-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -48028,7 +48028,7 @@
       </c>
       <c r="S547" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Prince-Oscar-2022-Non-Alcoholic-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -48115,7 +48115,7 @@
       </c>
       <c r="S548" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Privat-Brut-Nature-Reserva-2018-Organic-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -48202,7 +48202,7 @@
       </c>
       <c r="S549" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Proposit-Blanc-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -48289,7 +48289,7 @@
       </c>
       <c r="S550" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Proposit-Negre-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -48376,7 +48376,7 @@
       </c>
       <c r="S551" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Prosecco-Extra-Dry-"P"?</t>
+          <t>https://disndis.com/products/prosecco-extra-dry-p?variant=42821454299351</t>
         </is>
       </c>
     </row>
@@ -48463,7 +48463,7 @@
       </c>
       <c r="S552" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Protos-Roble-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -48550,7 +48550,7 @@
       </c>
       <c r="S553" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Pruno-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -48637,7 +48637,7 @@
       </c>
       <c r="S554" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Quinta-Da-Valbom-2013-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -48724,7 +48724,7 @@
       </c>
       <c r="S555" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/R&amp;G-Priorat-Clos-D'en-Ferran-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -48811,7 +48811,7 @@
       </c>
       <c r="S556" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/R&amp;G-Rueda-Verdejo-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -48898,7 +48898,7 @@
       </c>
       <c r="S557" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/R&amp;G-VTC-Eldoze-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -48985,7 +48985,7 @@
       </c>
       <c r="S558" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/R&amp;G-Xerez-Soleras-Olvidadas-Amontillado?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -49072,7 +49072,7 @@
       </c>
       <c r="S559" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/R&amp;G-Xerez-Soleras-Olvidadas-Fino?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -49159,7 +49159,7 @@
       </c>
       <c r="S560" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/R&amp;G-Xerez-Soleras-Olvidadas-Manzanilla?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -49246,7 +49246,7 @@
       </c>
       <c r="S561" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Ramon-Bilbao-Crianza-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -49333,7 +49333,7 @@
       </c>
       <c r="S562" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Raso-de-Larrainzar-Barrica-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -49420,7 +49420,7 @@
       </c>
       <c r="S563" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Rectoral-de-Amandi-Mencia-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -49507,7 +49507,7 @@
       </c>
       <c r="S564" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Rectoral-de-Amandi-Mencia-Manolo-Arnoya-Barrica-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -49594,7 +49594,7 @@
       </c>
       <c r="S565" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Rectoral-do-Umia-Albarino-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -49681,7 +49681,7 @@
       </c>
       <c r="S566" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Reference-Cabernet-Sauvignon-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -49768,7 +49768,7 @@
       </c>
       <c r="S567" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Reference-Merlot-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -49855,7 +49855,7 @@
       </c>
       <c r="S568" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Regina-Expresion-Mencia-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -49942,7 +49942,7 @@
       </c>
       <c r="S569" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Regina-Viarum-Mencia-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -50029,7 +50029,7 @@
       </c>
       <c r="S570" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Riesling-nr.420-Organic-0.0%-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -50116,7 +50116,7 @@
       </c>
       <c r="S571" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Rioja-Sierra-Cantabria-2020-Rose-Wine?</t>
+          <t>https://disndis.com/products/rioja-sierra-cantabria-rose-2020?variant=42766712406231</t>
         </is>
       </c>
     </row>
@@ -50203,7 +50203,7 @@
       </c>
       <c r="S572" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Rioja-Sierra-Cantabria-Crianza-2017-Red-Wine?</t>
+          <t>https://disndis.com/products/rioja-sierra-cantabria-rose-2020?variant=42766712406231</t>
         </is>
       </c>
     </row>
@@ -50290,7 +50290,7 @@
       </c>
       <c r="S573" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Rioja-Sierra-Cantabria-Gran-Reserva-2010-Red-Wine?</t>
+          <t>https://disndis.com/products/rioja-sierra-cantabria-rose-2020?variant=42766712406231</t>
         </is>
       </c>
     </row>
@@ -50377,7 +50377,7 @@
       </c>
       <c r="S574" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Rioja-Sierra-Cantabria-Organza-2018-White-Wine?</t>
+          <t>https://disndis.com/products/rioja-sierra-cantabria-rose-2020?variant=42766712406231</t>
         </is>
       </c>
     </row>
@@ -50464,7 +50464,7 @@
       </c>
       <c r="S575" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Rioja-Sierra-Cantabria-Reserva-Unica-2016-Red-Wine?</t>
+          <t>https://disndis.com/products/rioja-sierra-cantabria-rose-2020?variant=42766712406231</t>
         </is>
       </c>
     </row>
@@ -50551,7 +50551,7 @@
       </c>
       <c r="S576" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Rioja-Sierra-Cantabria-Sauvignon-Blanc-2020-White-Wine?</t>
+          <t>https://disndis.com/products/rioja-sierra-cantabria-rose-2020?variant=42766712406231</t>
         </is>
       </c>
     </row>
@@ -50638,7 +50638,7 @@
       </c>
       <c r="S577" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Rodriguez-Sanzo-Whisba-2018?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -50725,7 +50725,7 @@
       </c>
       <c r="S578" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Romanico-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -50812,7 +50812,7 @@
       </c>
       <c r="S579" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Rosario-Vera-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -50899,7 +50899,7 @@
       </c>
       <c r="S580" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Roze-Autentique-Busuioaca-2022-Dry-Rose-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -50986,7 +50986,7 @@
       </c>
       <c r="S581" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Sabalo-Barbadillo-Organic-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -51073,7 +51073,7 @@
       </c>
       <c r="S582" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Salanques-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -51160,7 +51160,7 @@
       </c>
       <c r="S583" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Sanus-Organic-White-Wine-0.0%?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -51247,7 +51247,7 @@
       </c>
       <c r="S584" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Sapientia-Sauvignon-Blanc-Organic-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -51334,7 +51334,7 @@
       </c>
       <c r="S585" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Sapientia-Verdejo-Organic-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -51421,7 +51421,7 @@
       </c>
       <c r="S586" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Sauternes-Blanc-Organic-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -51508,7 +51508,7 @@
       </c>
       <c r="S587" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Se-Canta-Colombard-Organic-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -51595,7 +51595,7 @@
       </c>
       <c r="S588" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Secret-Reserve-Pinot-Noir-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -51682,7 +51682,7 @@
       </c>
       <c r="S589" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Senda-de-Le¤adores-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -51769,7 +51769,7 @@
       </c>
       <c r="S590" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Senda-Garnacha-Organic-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -51856,7 +51856,7 @@
       </c>
       <c r="S591" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Senora-de-las-alturas-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -51943,7 +51943,7 @@
       </c>
       <c r="S592" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Senorio-San-Vicente-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -52030,7 +52030,7 @@
       </c>
       <c r="S593" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Serras-del-Priorat-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -52117,7 +52117,7 @@
       </c>
       <c r="S594" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Serras-del-Priorat-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -52204,7 +52204,7 @@
       </c>
       <c r="S595" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/So-Jennie-Blanc-Dry?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -52291,7 +52291,7 @@
       </c>
       <c r="S596" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/So-Jennie-Rosé?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -52378,7 +52378,7 @@
       </c>
       <c r="S597" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Sommos-Coleccion-Gewurztraminer-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -52465,7 +52465,7 @@
       </c>
       <c r="S598" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Sommos-Reserva-2016?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -52552,7 +52552,7 @@
       </c>
       <c r="S599" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Sommos-Varietales-Blanco-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -52639,7 +52639,7 @@
       </c>
       <c r="S600" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Syrah-Columbia-Valley-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -52726,7 +52726,7 @@
       </c>
       <c r="S601" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Tamaioasa-Romaneasca-Authentique-2022-Demisweet-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -52813,7 +52813,7 @@
       </c>
       <c r="S602" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Tamaioasa-Romaneasca-Eclipse-2021-Dry-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -52900,7 +52900,7 @@
       </c>
       <c r="S603" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Tandem-Ars-Memoria-2014-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -52987,7 +52987,7 @@
       </c>
       <c r="S604" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Tandem-Ars-Nova-2014-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -53074,7 +53074,7 @@
       </c>
       <c r="S605" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Tandem-Macula-2014-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -53161,7 +53161,7 @@
       </c>
       <c r="S606" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Taron-Blanco-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -53248,7 +53248,7 @@
       </c>
       <c r="S607" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Taron-Cepas-Centenarias-2015-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -53335,7 +53335,7 @@
       </c>
       <c r="S608" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Taron-Crianza-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -53422,7 +53422,7 @@
       </c>
       <c r="S609" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Taron-Reserva-2014-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -53509,7 +53509,7 @@
       </c>
       <c r="S610" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Taron-Tempranillo-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -53596,7 +53596,7 @@
       </c>
       <c r="S611" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Taron-Tinto-4M-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -53683,7 +53683,7 @@
       </c>
       <c r="S612" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Telleria-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -53770,7 +53770,7 @@
       </c>
       <c r="S613" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Terras-do-Coucao-Grande-Escolha-2018-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -53857,7 +53857,7 @@
       </c>
       <c r="S614" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Terras-Gauda-Etiqueta-Negra-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -53944,7 +53944,7 @@
       </c>
       <c r="S615" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Terras-Gauda-Rias-Baixas-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -54031,7 +54031,7 @@
       </c>
       <c r="S616" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Terres-de-Sarment-Dealcoholized-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -54118,7 +54118,7 @@
       </c>
       <c r="S617" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/The-Pundit-2018-Columbia-Valley-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -54205,7 +54205,7 @@
       </c>
       <c r="S618" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Thokozani-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -54292,7 +54292,7 @@
       </c>
       <c r="S619" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Tip-Top-Alcohol-Free-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -54379,7 +54379,7 @@
       </c>
       <c r="S620" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Tip-Top-Alcohol-Free-Rose-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -54466,7 +54466,7 @@
       </c>
       <c r="S621" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Tip-Top-Alcohol-Free-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -54553,7 +54553,7 @@
       </c>
       <c r="S622" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Triens-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -54640,7 +54640,7 @@
       </c>
       <c r="S623" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Urbezo-Chardonnay-Organic-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -54727,7 +54727,7 @@
       </c>
       <c r="S624" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Usted-Organic-2015-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -54814,7 +54814,7 @@
       </c>
       <c r="S625" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Val-de-Horna-Grenache-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -54901,7 +54901,7 @@
       </c>
       <c r="S626" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Valduero-Reserva-Premium-2012-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -54988,7 +54988,7 @@
       </c>
       <c r="S627" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Valduero-Una-Cepa-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -55075,7 +55075,7 @@
       </c>
       <c r="S628" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Valmoissine-Pinot-Noir-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -55162,7 +55162,7 @@
       </c>
       <c r="S629" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Valpolicella-Classico-Superiore-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -55249,7 +55249,7 @@
       </c>
       <c r="S630" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vecrima-Godello-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -55336,7 +55336,7 @@
       </c>
       <c r="S631" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vega-Sicilia-Valbuena-5-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -55423,7 +55423,7 @@
       </c>
       <c r="S632" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vella-Lola-Blanc-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -55510,7 +55510,7 @@
       </c>
       <c r="S633" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vella-Lola-Negre-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -55597,7 +55597,7 @@
       </c>
       <c r="S634" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vella-Lola-Rose-Wine-2020?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -55684,7 +55684,7 @@
       </c>
       <c r="S635" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vent-del-Mar-Blanc-Organic-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -55771,7 +55771,7 @@
       </c>
       <c r="S636" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vent-del-Mar-Negre-Organic-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -55858,7 +55858,7 @@
       </c>
       <c r="S637" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Villa-Conchi-0,0-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -55945,7 +55945,7 @@
       </c>
       <c r="S638" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Villa-Conchi-Cava-Brut-Organic-Vegan-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -56032,7 +56032,7 @@
       </c>
       <c r="S639" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Villa-Conchi-Cava-Brut-Reserva-Sparkling-Wine?</t>
+          <t>https://disndis.com/products/villa-conchi-cava-brut-reserva-sparkling-wine?variant=46909724229958</t>
         </is>
       </c>
     </row>
@@ -56119,7 +56119,7 @@
       </c>
       <c r="S640" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Villa-Conchi-Cava-Brut-Rose-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -56206,7 +56206,7 @@
       </c>
       <c r="S641" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Villa-Conchi-Cava-Brut-Seleccion-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -56293,7 +56293,7 @@
       </c>
       <c r="S642" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Villa-Conchi-Cava-Extra-Brut-Imperial-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -56380,7 +56380,7 @@
       </c>
       <c r="S643" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vina-Ainzon-Reserva-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -56467,7 +56467,7 @@
       </c>
       <c r="S644" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vina-de-Neira-Blanco-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -56554,7 +56554,7 @@
       </c>
       <c r="S645" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vina-de-Neira-Tinto-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -56641,7 +56641,7 @@
       </c>
       <c r="S646" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vina-Esmeralda-2020-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -56728,7 +56728,7 @@
       </c>
       <c r="S647" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vina-Maris-Limited-Edition-Red-Wine-2015?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -56815,7 +56815,7 @@
       </c>
       <c r="S648" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vina-Pedrosa-Crianza-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -56902,7 +56902,7 @@
       </c>
       <c r="S649" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vina-Pedrosa-La-Navilla-Reserva-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -56989,7 +56989,7 @@
       </c>
       <c r="S650" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vina-Pomal-Crianza-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -57076,7 +57076,7 @@
       </c>
       <c r="S651" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vina-Sastre-Crianza-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -57163,7 +57163,7 @@
       </c>
       <c r="S652" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vina-Sastre-Pago-de-Santa-Cruz-Reserva-2014-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -57250,7 +57250,7 @@
       </c>
       <c r="S653" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vina-Sastre-Regina-Vides-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -57337,7 +57337,7 @@
       </c>
       <c r="S654" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vina-Sastre-Roble-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -57424,7 +57424,7 @@
       </c>
       <c r="S655" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vina-Sol-Blanco-Original-2021-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -57511,7 +57511,7 @@
       </c>
       <c r="S656" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vina-Zorzal-Black-Grenache-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -57598,7 +57598,7 @@
       </c>
       <c r="S657" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vina-Zorzal-Garnacha-Blanca-2019-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -57685,7 +57685,7 @@
       </c>
       <c r="S658" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vina-Zorzal-Nat-Cool-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -57772,7 +57772,7 @@
       </c>
       <c r="S659" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vino-Nobile-di-Montepulciano-Riserva-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -57859,7 +57859,7 @@
       </c>
       <c r="S660" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vinos-de-Finca-Losada-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -57946,7 +57946,7 @@
       </c>
       <c r="S661" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Viña-Jaraba-Cosecha-2020-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -58033,7 +58033,7 @@
       </c>
       <c r="S662" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Viña-Jaraba-Reserva-2017-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -58120,7 +58120,7 @@
       </c>
       <c r="S663" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vitulia-Barrica-11-meses-2017?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -58207,7 +58207,7 @@
       </c>
       <c r="S664" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Viva-la-Vid-a-2018-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -58294,7 +58294,7 @@
       </c>
       <c r="S665" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vizcarra-Celia-2016-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -58381,7 +58381,7 @@
       </c>
       <c r="S666" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Vizcarra-Senda-del-Oro-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -58468,7 +58468,7 @@
       </c>
       <c r="S667" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Xarel-la-Brut-Nature-2012-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -58555,7 +58555,7 @@
       </c>
       <c r="S668" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Zede-de-Labegorce-Cuvee-2019-Red-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -58642,7 +58642,7 @@
       </c>
       <c r="S669" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Zero-Blush-Vegan-Alcohol-Free-Sparkling-Rose?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -58729,7 +58729,7 @@
       </c>
       <c r="S670" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Zéro-Degré-Non-Alcoholic-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -58816,7 +58816,7 @@
       </c>
       <c r="S671" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Zero-Vegan-Alcohol-Free-Sparkling-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
@@ -58903,7 +58903,7 @@
       </c>
       <c r="S672" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://disndis.com/products/Zero-Zero-Le-Naturel-White-Wine?</t>
+          <t>https://disndis.com/</t>
         </is>
       </c>
     </row>
